--- a/biology/Botanique/Campanula_alpina/Campanula_alpina.xlsx
+++ b/biology/Botanique/Campanula_alpina/Campanula_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campanula alpina est une petite plante herbacée monocarpique de 5 à 20 cm, qui pousse dans les pelouses des étages subalpins à alpins des Alpes centrales et orientales, et aussi dans les Carpates[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campanula alpina est une petite plante herbacée monocarpique de 5 à 20 cm, qui pousse dans les pelouses des étages subalpins à alpins des Alpes centrales et orientales, et aussi dans les Carpates. 
 C'est une espèce proche de Campanula alpestris All. (synonyme : Campanula allionii Vill.) des Alpes françaises.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>CULTURE</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zones de rusticité : 4-8
 Exposition : soleil 
@@ -547,9 +561,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Campanula alpina, la "campanule des Alpes centrales et orientales", a pour synonyme : Marianthemum alpinum (Jacq.) Schur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campanula alpina, la "campanule des Alpes centrales et orientales", a pour synonyme : Marianthemum alpinum (Jacq.) Schur.
 Campanula ciblesii Prodán
 Campanula haynaldii Szontágh
 </t>
